--- a/testData/InstantVideoConsultation.xlsx
+++ b/testData/InstantVideoConsultation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="13">
   <si>
     <t>Gynaecology</t>
   </si>
